--- a/data/input/absenteeism_data_17.xlsx
+++ b/data/input/absenteeism_data_17.xlsx
@@ -476,16 +476,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>53472</v>
+        <v>51692</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Stephany Castro</t>
+          <t>Paulo Moura</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -494,167 +494,167 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45100</v>
+        <v>45103</v>
       </c>
       <c r="G2" t="n">
-        <v>4308.64</v>
+        <v>12335.62</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1160</v>
+        <v>2136</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dr. Alexandre Carvalho</t>
+          <t>Clara Azevedo</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45100</v>
+        <v>45102</v>
       </c>
       <c r="G3" t="n">
-        <v>7400.67</v>
+        <v>8006.51</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>77297</v>
+        <v>53235</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cauã da Mata</t>
+          <t>Srta. Ana Carolina Lima</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45094</v>
+        <v>45090</v>
       </c>
       <c r="G4" t="n">
-        <v>6347.54</v>
+        <v>8885.870000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>12816</v>
+        <v>32103</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Isabel Freitas</t>
+          <t>Luiz Gustavo Gonçalves</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>7</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45100</v>
+        <v>45085</v>
       </c>
       <c r="G5" t="n">
-        <v>3639.61</v>
+        <v>9014.59</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>68949</v>
+        <v>27610</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>João Lucas Dias</t>
+          <t>Sofia Jesus</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>5</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45080</v>
+        <v>45089</v>
       </c>
       <c r="G6" t="n">
-        <v>2652.3</v>
+        <v>6231.25</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>32137</v>
+        <v>4284</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Marcelo Oliveira</t>
+          <t>Vinicius Lopes</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F7" s="2" t="n">
         <v>45097</v>
       </c>
       <c r="G7" t="n">
-        <v>6484.91</v>
+        <v>11691.49</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>9786</v>
+        <v>45485</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Maria Clara Campos</t>
+          <t>Caio Cardoso</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -664,94 +664,94 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E8" t="n">
         <v>6</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45104</v>
+        <v>45084</v>
       </c>
       <c r="G8" t="n">
-        <v>3950.11</v>
+        <v>3104.89</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4424</v>
+        <v>98637</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Isaac Ferreira</t>
+          <t>Lucca Vieira</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45101</v>
+        <v>45089</v>
       </c>
       <c r="G9" t="n">
-        <v>9361.799999999999</v>
+        <v>11859.41</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>13059</v>
+        <v>70423</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Brenda Nunes</t>
+          <t>Enzo Gabriel Ribeiro</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45090</v>
+        <v>45080</v>
       </c>
       <c r="G10" t="n">
-        <v>6266.46</v>
+        <v>11230.47</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>83115</v>
+        <v>62428</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Vitória Campos</t>
+          <t>Vitória Cunha</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -761,7 +761,7 @@
         <v>45083</v>
       </c>
       <c r="G11" t="n">
-        <v>5115.28</v>
+        <v>3085.63</v>
       </c>
     </row>
   </sheetData>
